--- a/biology/Médecine/MGEFI/MGEFI.xlsx
+++ b/biology/Médecine/MGEFI/MGEFI.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La mutuelle générale de l'Économie, des Finances et de l'Industrie (Mgéfi), est une mutuelle de santé et prévoyance d'agents actifs, retraités et stagiaires de la fonction publique d'État, dont le siège social est à Paris. Elle assure la protection sociale d'environ 327 000 personnes en 2022[1] et est dédiée aux agents des ministères économiques et financiers[2].
-Elle dispose d'un réseau de 1212 militants présents sur le terrain partout en France, ainsi que de 200 salariés  en 2022[1].
+La mutuelle générale de l'Économie, des Finances et de l'Industrie (Mgéfi), est une mutuelle de santé et prévoyance d'agents actifs, retraités et stagiaires de la fonction publique d'État, dont le siège social est à Paris. Elle assure la protection sociale d'environ 327 000 personnes en 2022 et est dédiée aux agents des ministères économiques et financiers.
+Elle dispose d'un réseau de 1212 militants présents sur le terrain partout en France, ainsi que de 200 salariés  en 2022.
 Si la Mgéfi est historiquement la mutuelle des personnels actifs, retraités et stagiaires des ministères économiques et financiers, elle est aussi ouverte aux autres agents de la fonction publique.
 </t>
         </is>
@@ -514,7 +526,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ancêtre de la mutuelle générale de l'Économie, des Finances et de l'Industrie est la caisse de secours de mutualité des comptables directs et agents du Trésor. Cette mutuelle dédiée aux fonctionnaires du Trésor public est fondée le 4 février 1927 ; la présidence est alors confiée à Étienne Pinaud.
 La mutuelle des agents des Impôts est créée le 1er janvier 1987. En 2007, elle couvre 92 % des agents de l'ancienne direction générale des Impôts pour les risques maladie et pour la prévoyance.
@@ -526,7 +540,7 @@
 Fraternelle (Imprimerie nationale) ;
 mutuelle des personnels de l'Industrie et de la Recherche ;
 mutuelle nationale de l'entraide administrative (DGCCRF).
-Ces mutuelles ne disparaissent pas pour autant, puisqu'elles conservent l'action sociale. Il s'agit de mutuelles relevant du livre 3 du code de la mutualité. Cependant, le 11 septembre 2013, les mutuelles des agents des Impôts et du Trésor se regroupent pour former la MASFiP : la mutuelle d'action sociale des Finances publiques. Cette dernière est également ouverte aux agents de la DGCCRF et de l'Imprimerie nationale[3].
+Ces mutuelles ne disparaissent pas pour autant, puisqu'elles conservent l'action sociale. Il s'agit de mutuelles relevant du livre 3 du code de la mutualité. Cependant, le 11 septembre 2013, les mutuelles des agents des Impôts et du Trésor se regroupent pour former la MASFiP : la mutuelle d'action sociale des Finances publiques. Cette dernière est également ouverte aux agents de la DGCCRF et de l'Imprimerie nationale.
 La MGEFI est adhérente à la Fédération nationale de la mutualité française et à la MFP.
 En 2022, elle rejoint la SGAM Matmut.
 </t>
@@ -557,7 +571,9 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La MGEFI a une gouvernance mutualiste : l'ensemble des adhérents élisent des représentants qui participent à l'assemblée générale annuelle, valident les décisions du conseil d'administration et déterminent les orientations de la mutuelle.
 Le siège social est situé rue Bouchardon, dans le 10e arrondissement de Paris.
